--- a/data/qualitative.xlsx
+++ b/data/qualitative.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pssst/Documents/UO/Terms/Winter 2019/R/viz/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FCBFDBA-7140-6545-BF4E-C3D45558C95A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A22885-7C84-4B4A-9A04-84E9F4D08EAB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16540" xr2:uid="{CAB11C9C-A994-9B4B-B078-AE562B113707}"/>
+    <workbookView xWindow="31000" yWindow="3100" windowWidth="27640" windowHeight="14900" xr2:uid="{CAB11C9C-A994-9B4B-B078-AE562B113707}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,9 +111,6 @@
     <t>Very positive, nurturing, and invigorating.</t>
   </si>
   <si>
-    <t>It really is helpful fo college student stress.</t>
-  </si>
-  <si>
     <t>Nice. Learned so many new things</t>
   </si>
   <si>
@@ -129,9 +126,6 @@
     <t>Amazing! So calming, welcoming, and educational.</t>
   </si>
   <si>
-    <t>This is such a valuable exerience!</t>
-  </si>
-  <si>
     <t>Pretty amazing.</t>
   </si>
   <si>
@@ -154,6 +148,12 @@
   </si>
   <si>
     <t>Don't hesitate; meditate. Better get some rotalities :)</t>
+  </si>
+  <si>
+    <t>It really is helpful for college student stress.</t>
+  </si>
+  <si>
+    <t>This is such a valuable experience!</t>
   </si>
 </sst>
 </file>
@@ -518,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EB051DF-BDB7-0D42-97A5-1B0517A26B73}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -535,7 +535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="68">
+    <row r="2" spans="1:2" ht="51">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -543,7 +543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="68">
+    <row r="3" spans="1:2" ht="51">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -551,7 +551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="51">
+    <row r="4" spans="1:2" ht="34">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -559,7 +559,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="272">
+    <row r="5" spans="1:2" ht="187">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -567,7 +567,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="221">
+    <row r="6" spans="1:2" ht="153">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -575,7 +575,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="85">
+    <row r="7" spans="1:2" ht="51">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -583,7 +583,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="170">
+    <row r="8" spans="1:2" ht="119">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -591,13 +591,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="153">
+    <row r="9" spans="1:2" ht="85">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" ht="221">
+    <row r="10" spans="1:2" ht="136">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -605,7 +605,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="153">
+    <row r="11" spans="1:2" ht="102">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -613,7 +613,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="238">
+    <row r="12" spans="1:2" ht="153">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
@@ -621,7 +621,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="34">
+    <row r="13" spans="1:2" ht="17">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -629,7 +629,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="119">
+    <row r="14" spans="1:2" ht="85">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -637,68 +637,68 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="102">
+    <row r="15" spans="1:2" ht="51">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="34">
+      <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="68">
-      <c r="A16" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:2" ht="34">
+      <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="68">
-      <c r="A17" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:2" ht="68">
+      <c r="A18" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="85">
-      <c r="A18" s="2" t="s">
+      <c r="B18" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="51">
+      <c r="A19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="102">
-      <c r="A19" s="2" t="s">
+    <row r="20" spans="1:2" ht="51">
+      <c r="A20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="68">
-      <c r="A20" s="2" t="s">
+    <row r="21" spans="1:2" ht="68">
+      <c r="A21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="102">
-      <c r="A21" s="2" t="s">
+    <row r="22" spans="1:2" ht="68">
+      <c r="A22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="102">
-      <c r="A22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
